--- a/data/tests/cluster_20.xlsx
+++ b/data/tests/cluster_20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,20 +486,20 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Rv1169c</t>
+          <t>Rv0805</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PE11 lipX Rv1169c</t>
+          <t>cpdA icc Rv0805</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>FUNCTION: Involved in cell wall lipids remodeling and in virulence (PubMed:26157429, PubMed:26902658, PubMed:28198348). Restricts the biofilm growth and is essential for the optimal intracellular survival of M.tuberculosis (PubMed:28198348). Shows esterase activity with a preference for short-chain esters, particularly pNP-acetate (C2) and pNP-butyrate (C4) (PubMed:26902658). Has weaker activity with pNP-octanoate (C8), pNP-laurate (C12) and pNP-myristate (C14) (PubMed:26902658). Shows weak long-chain triacylglycerol (TAG) hydrolase activity in vitro (PubMed:16354661). Not necessary for PPE17 stability or for its localization on the mycobacterial surface (PubMed:23469198). {ECO:0000269|PubMed:16354661, ECO:0000269|PubMed:23469198, ECO:0000269|PubMed:26157429, ECO:0000269|PubMed:26902658, ECO:0000269|PubMed:28198348}.</t>
+          <t>FUNCTION: Hydrolyzes cAMP to 5'-AMP. Plays an important regulatory role in modulating the intracellular concentration of cAMP, thereby influencing cAMP-dependent processes. Can also hydrolyze cGMP, p-nitrophenyl phosphate (pNPP), bis-(p-nitrophenyl phosphate) (bis(pNPP)), p-nitrophenyl phenylphosphonate (pNPPP) and 2',3'-cAMP. May play a role in pathogenicity, not only by hydrolyzing cAMP, but also by altering properties of the cell wall. {ECO:0000255|HAMAP-Rule:MF_00905, ECO:0000269|PubMed:16313172, ECO:0000269|PubMed:19801656}.</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -509,7 +509,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Rv2521</t>
+          <t>Rv1169c</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -517,12 +517,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>bcp bcp2 Rv2521</t>
+          <t>PE11 lipX Rv1169c</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>FUNCTION: Thiol-specific peroxidase that catalyzes the reduction of hydrogen peroxide and organic hydroperoxides to water and alcohols, respectively. Plays a role in cell protection against oxidative stress by detoxifying peroxides and as sensor of hydrogen peroxide-mediated signaling events. {ECO:0000250|UniProtKB:P0AE52}.</t>
+          <t>FUNCTION: Involved in cell wall lipids remodeling and in virulence (PubMed:26157429, PubMed:26902658, PubMed:28198348). Restricts the biofilm growth and is essential for the optimal intracellular survival of M.tuberculosis (PubMed:28198348). Shows esterase activity with a preference for short-chain esters, particularly pNP-acetate (C2) and pNP-butyrate (C4) (PubMed:26902658). Has weaker activity with pNP-octanoate (C8), pNP-laurate (C12) and pNP-myristate (C14) (PubMed:26902658). Shows weak long-chain triacylglycerol (TAG) hydrolase activity in vitro (PubMed:16354661). Not necessary for PPE17 stability or for its localization on the mycobacterial surface (PubMed:23469198). {ECO:0000269|PubMed:16354661, ECO:0000269|PubMed:23469198, ECO:0000269|PubMed:26157429, ECO:0000269|PubMed:26902658, ECO:0000269|PubMed:28198348}.</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -532,20 +532,20 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Rv0805</t>
+          <t>Rv0220</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>cpdA icc Rv0805</t>
+          <t>lipC Rv0220</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>FUNCTION: Hydrolyzes cAMP to 5'-AMP. Plays an important regulatory role in modulating the intracellular concentration of cAMP, thereby influencing cAMP-dependent processes. Can also hydrolyze cGMP, p-nitrophenyl phosphate (pNPP), bis-(p-nitrophenyl phosphate) (bis(pNPP)), p-nitrophenyl phenylphosphonate (pNPPP) and 2',3'-cAMP. May play a role in pathogenicity, not only by hydrolyzing cAMP, but also by altering properties of the cell wall. {ECO:0000255|HAMAP-Rule:MF_00905, ECO:0000269|PubMed:16313172, ECO:0000269|PubMed:19801656}.</t>
+          <t>FUNCTION: Esterase that can hydrolyze short-chain esters with the carbon chain containing 2 to 10 carbon atoms. Does not have lipase activity. Is highly immunogenic and elicits strong humoral immune responses in both HIV-negative (HIV-) and HIV-positive (HIV+) tuberculosis (TB) patients. Also elicits proinflammatory cytokine and chemokine responses from macrophages and pulmonary epithelial cells (PubMed:22038913). May participate in the progression of active tuberculosis both by contributing to the utilization of lipid substrates for bacterial growth and replication, and by modulating immune responses (PubMed:22038913). {ECO:0000269|PubMed:22038913}.</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -555,7 +555,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Rv0220</t>
+          <t>Rv2521</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -563,15 +563,746 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>lipC Rv0220</t>
+          <t>bcp bcp2 Rv2521</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>FUNCTION: Esterase that can hydrolyze short-chain esters with the carbon chain containing 2 to 10 carbon atoms. Does not have lipase activity. Is highly immunogenic and elicits strong humoral immune responses in both HIV-negative (HIV-) and HIV-positive (HIV+) tuberculosis (TB) patients. Also elicits proinflammatory cytokine and chemokine responses from macrophages and pulmonary epithelial cells (PubMed:22038913). May participate in the progression of active tuberculosis both by contributing to the utilization of lipid substrates for bacterial growth and replication, and by modulating immune responses (PubMed:22038913). {ECO:0000269|PubMed:22038913}.</t>
+          <t>FUNCTION: Thiol-specific peroxidase that catalyzes the reduction of hydrogen peroxide and organic hydroperoxides to water and alcohols, respectively. Plays a role in cell protection against oxidative stress by detoxifying peroxides and as sensor of hydrogen peroxide-mediated signaling events. {ECO:0000250|UniProtKB:P0AE52}.</t>
         </is>
       </c>
       <c r="E6" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Rv0379</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>secE2 Rv0379 RVBD_0379</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>FUNCTION: Binds calcium ions. May play a role in sequestering additional small ligands. {ECO:0000269|PubMed:21370306}.</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Rv0670</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>end nfo Rv0670 MTCI376.04c</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>FUNCTION: Endonuclease IV plays a role in DNA repair. It cleaves phosphodiester bonds at apurinic or apyrimidinic (AP) sites, generating a 3'-hydroxyl group and a 5'-terminal sugar phosphate. {ECO:0000255|HAMAP-Rule:MF_00152}.</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Rv1121</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>zwf1 zwf Rv1121 MTCY22G8.10</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>FUNCTION: Catalyzes the oxidation of glucose 6-phosphate to 6-phosphogluconolactone. {ECO:0000255|HAMAP-Rule:MF_00966}.</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Rv2213</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>pepA pepB Rv2213 MTCY190.24</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>FUNCTION: Presumably involved in the processing and regular turnover of intracellular proteins. Catalyzes the removal of unsubstituted N-terminal amino acids from various peptides (By similarity). {ECO:0000250}.</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Rv3444c</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>esxT Rv3444c LH57_18810</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>FUNCTION: Induces apoptosis of host cells via activation of NF-kappa-B. {ECO:0000269|PubMed:25242740}.</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Rv2057c</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>rpmG1 rpmG Rv2057c MTCY63A.03</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Rv0377</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Rv0377 MTV036.12</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Rv2529</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>2</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Rv2529</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Rv0800</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>2</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>apeB pepC Rv0800 MTCY07H7A.09c</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Rv0769</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Rv0769</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Rv3385c</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>vapB46 Rv3385c</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>FUNCTION: Antitoxin component of a type II toxin-antitoxin (TA) system. Upon expression in M.smegmatis neutralizes the effect of cognate toxin VapC46. {ECO:0000269|PubMed:20011113}.</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Rv2134c</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Rv2134c</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Rv0029</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Rv0029</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Rv0275c</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Rv0275c</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Rv3622c</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>PE32 Rv3622c</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Rv3477</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>PE31 Rv3477</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Rv3353c</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Rv3353c</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Rv3605c</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Rv3605c</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Rv0610c</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Rv0610c</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Rv1528c</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>papA4 Rv1528c</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Rv2483c</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>plsC Rv2483c</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Rv0263c</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Rv0263c</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Rv3636</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Rv3636</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Rv2657c</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Rv2657c</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Rv0615</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Rv0615</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Rv2660c</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Rv2660c</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Rv3334</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Rv3334</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Rv0226c</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Rv0226c</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Rv0420c</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Rv0420c</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Rv0679c</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Rv0679c</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Rv2639c</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Rv2639c MTCY441.09c</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Rv1678</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Rv1678</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Rv3657c</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Rv3657c</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Rv2248</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Rv2248 MTCY427.29</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Rv1740</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>vapB34 Rv1740</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>FUNCTION: Antitoxin component of a possible type II toxin-antitoxin (TA) system. The cognate toxin is VapC34. {ECO:0000305|PubMed:20011113}.</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Rv2667</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Rv2667 MTCY441.36</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Rv1786</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>1</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Rv1786</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="n">
         <v>20</v>
       </c>
     </row>
